--- a/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICE/TABLA_BIBLIOGRAFIA_ICE.xlsx
+++ b/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICE/TABLA_BIBLIOGRAFIA_ICE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>I.C.E.</t>
   </si>
@@ -93,7 +93,122 @@
     <t>Circuitos Integrados Analógicos</t>
   </si>
   <si>
-    <t xml:space="preserve">Coughlin, R., F., &amp; Driscoll, F. F. (1998). Amplificadores Operacionales y Circuitos Integrados Lineales </t>
+    <t>Coughlin, R., F., &amp; Driscoll, F. F. (1998). Amplificadores Operacionales y Circuitos Integrados Lineales (4/a edición). Prentice-Hall Hispanoamericana S.A.</t>
+  </si>
+  <si>
+    <t>Malik, N. R. (1995). Electronic Circuits: Analysis, Simulation and Design (__ edición). Pearson.</t>
+  </si>
+  <si>
+    <t>Neamen D. A. (2000). Análisis y Diseño de circuitos Electrónicos Tomo 2 (2/a edición). McGraw-Hill.</t>
+  </si>
+  <si>
+    <t>Savant, S. J., &amp; Roden, M. S., &amp; Carpenter, G. (1991). Electronic Design, Circuits and Systems (2/a edición). The Benjamin/Cummings Publishing.</t>
+  </si>
+  <si>
+    <t>Ingeniería Acústica</t>
+  </si>
+  <si>
+    <t>Kinsler, L. E., Frey A. R., &amp; Coppens A. B., &amp; Sanders J. V. (1995). Fundamentos de Acústica (__ edición). Editorial Limusa.</t>
+  </si>
+  <si>
+    <t>Asselineau, M. (2015). Building Acoustics (1/a edición). Ed. CRC.</t>
+  </si>
+  <si>
+    <t>Campos y Ondas Electromagnéticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halliday, D., &amp; Resnick, R., &amp; Krane, K. S. (1994). Física Vol. 2. Versión Ampliada (3/a edición). CECSA, México. </t>
+  </si>
+  <si>
+    <t>Serway, R. A., &amp; Jewett, W. J. (2004). Física II (3/a edición). International Thomson Editores S. A. de C. V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartlett, B. (2017). The Step by Step Approach to Professional Audio Recording (7/a edición). Ed. Routledge Taylor &amp; Francis. </t>
+  </si>
+  <si>
+    <t>Collins, M. (2012). Pro Tools 9 Music Production, Recording, Editing and Mixing (1/a edición). Editorial Routeledge Focal Press Taylor and Francis Group.</t>
+  </si>
+  <si>
+    <t>Redes de Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Freeman, R. L. (1996). Telecommunication System Engineering (3/a edición). John Wiley &amp; Sons.</t>
+  </si>
+  <si>
+    <t>Gallo, M. A., &amp; Hancock, W. M. (2001). Computer Comunications and Networking (1/a edición). Brooks/Cole.</t>
+  </si>
+  <si>
+    <t>Black, U. (1996). Computer Networks Protocols, Standards, and Interfaces (2/a edición). Prentice-Hall.</t>
+  </si>
+  <si>
+    <t>Stallings, W. (2000). Local and Metropolitan Area Networks (6/a edición). Pearson.</t>
+  </si>
+  <si>
+    <t>Creasey, D. J. (2017). Audio Processes Musical Analysis, Modification, Synthesis and Control (1/a edición). Ed. Routeledge Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>Conversión de la Energía I</t>
+  </si>
+  <si>
+    <t>Sen, P. C. (2013). Principles of Electric Machines and Power Electronics (3/a edición). John Wiley and Sons.</t>
+  </si>
+  <si>
+    <t>Chapman, S. J. (2012). Máquinas Eléctricas (5/a edición). McGraw-Hill Educación.</t>
+  </si>
+  <si>
+    <t>Chiasson, J. (2005). Modelling and High-Performance Control of Electrical Machines (1/a edición). John Willey and Sons. DOI:10.1002/0471722359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitzgerald, A. E., &amp; Kingsley, Ch., &amp; Umans S. D.  (2004). Máquinas Eléctricas (6/a edición). </t>
+  </si>
+  <si>
+    <t>Sears, W. F., &amp; Zemansky W. M. (2009). Física Universitaria Volúmen 2 (12/a edición). Pearson Educación de México, S. A. de C. V.</t>
+  </si>
+  <si>
+    <t>Digón, G. A. &amp; Suárez, N., &amp; Martí Díaz D. A. (2017). Control de Sonido en Directo (1/a edición). Coedición Alfaomega, Altaria Editorial.</t>
+  </si>
+  <si>
+    <t>Laboratorio de Instrumentación Virtual</t>
+  </si>
+  <si>
+    <t>Lajara Vizcaino, J. R., &amp; Pelegrí Sebastiá, J. (2017). Labview, Entorno Gráfico de Programación (3/a edición). Ed. Alfaomega y Marcombo.</t>
+  </si>
+  <si>
+    <t>Antoni, M., &amp; Biel, D., &amp; Olivé, J., &amp; Prat, J., &amp; Sánchez, F. J. (2001). Instrumentación Virtual: Adquisición, Procesado y Análisis de Señales (1/a edición). Ediciones UPC.</t>
+  </si>
+  <si>
+    <t>Ferro Veiga, J. M. (2018). Experto en Acústica Forense (1/a edición). 
+All Rights Reserved - Standard Copyright License.</t>
+  </si>
+  <si>
+    <t>García Rodríguez, A. (1988). La Contaminación Acústica (1/a edición). Publicaciones de Universidad de Valencia (PUV). https://www.digitaliapublishing.com/a/37226/la-contaminacion-acustica</t>
+  </si>
+  <si>
+    <t>Laboratorio de Circuitos y Mediciones</t>
+  </si>
+  <si>
+    <t>Carr, J. J. (2003). Elements of Electronic Instrumentation and Measurement (3/a edición). Pearson India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaric, R. (2011). Instrumentation and Measurement in Electrical Engineering (1/a edición). BrownWalker Press Boca Raton. </t>
+  </si>
+  <si>
+    <t>Srivinas, G. N., &amp; Narashimha S. (2018). Electrical and Electronic Measurements and Instrumentation (1/a edición). BS Publications.</t>
+  </si>
+  <si>
+    <t>Giani, A. (2013). Acústica Arquitectónica (). Ediciones de la U, coedición Ed. Nobuko.</t>
+  </si>
+  <si>
+    <t>Kleiner M. (2012). Acoustics and Audio Technology (3/a edición). Ed. J. Ross Publishing.</t>
+  </si>
+  <si>
+    <t>Martín Díaz, D., &amp; Sevilla Jiménez, J. A. (2017). Electroacústica Técnico en Sonido para Audiovisuales y Espectáculos (1/a edición). Ed. Alfaomega Grupo Editor.</t>
+  </si>
+  <si>
+    <t>Microprocesadores y Periféricos</t>
+  </si>
+  <si>
+    <t>Williams, E. (2014). Make: AVR Programming ().</t>
   </si>
 </sst>
 </file>
@@ -129,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -139,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C18"/>
+  <dimension ref="B1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,6 +668,182 @@
         <v>24</v>
       </c>
     </row>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICE/TABLA_BIBLIOGRAFIA_ICE.xlsx
+++ b/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICE/TABLA_BIBLIOGRAFIA_ICE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>I.C.E.</t>
   </si>
@@ -208,7 +208,37 @@
     <t>Microprocesadores y Periféricos</t>
   </si>
   <si>
-    <t>Williams, E. (2014). Make: AVR Programming ().</t>
+    <t>Morales Alanis, J. (2012). Acustica en Espacios y en los Volúmenes Arquitectónicos (1/a edición). Editorial Trillas.</t>
+  </si>
+  <si>
+    <t>Williams, E. (2014). Make: AVR Programming: Learning to Write Software for Hardware (1/a edición). Editorial Make Community, LLC.</t>
+  </si>
+  <si>
+    <t>Recuero López, M. (2000). Ingeniería Acústica (1/a edición). Editorial Paraninfo.</t>
+  </si>
+  <si>
+    <t>Peck, A. (2018). AVR Assembler by Example (1/a edición). Disponible en línea https://drive.google.com/file/d/1MTGdW4_ZHMaIDW7nqQ_V67ZJxyJTDc1U/view</t>
+  </si>
+  <si>
+    <t>Schmidt, G. (2016). Beginners Introduction to the Assembly Language of ATMEL-AVR-Microprocessors. Disponible en línea https://pdf4pro.com/amp/download?data_id=185847&amp;slug=beginners-introduction-to-the-assembly-language</t>
+  </si>
+  <si>
+    <t>Roederer, J. (2009). The Physics and Psychophysics of Music: An Introduction (4/a edición). Editorial Springer, DOI 10.1007/978-0-387-09474-8.</t>
+  </si>
+  <si>
+    <t>Margolis, M., &amp; Jepson, B., &amp; Weldin, N. R. (2019). Arduino Cookbook: Recipes to Begin, Expand, and Enhace Your Proiects (3/a edición). Ed. O'reilly.</t>
+  </si>
+  <si>
+    <t>Bayle, J. (2013). C Programming for Arduino (1/a edición). Packt Publishing.</t>
+  </si>
+  <si>
+    <t>Cameron, N. (2019). Arduino Applied (1/a edición). Editorial Apress.</t>
+  </si>
+  <si>
+    <t>Culkin, J. &amp; Hagan, e. (2017). Learn Electronics with Arduino: An Ilustrated Beginners Guide to Physical Computing (2017). Ed. Make Community, LLC.</t>
+  </si>
+  <si>
+    <t>Singh, R., &amp; Gehlot, A., &amp; Singh, B., Choudhury, S. (2018). Arduino-Based Embedded Systems: Interfacing, Simulation, and LabVIEW GUI (1/a edición). CRC Press.</t>
   </si>
 </sst>
 </file>
@@ -244,10 +274,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -255,9 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C62"/>
+  <dimension ref="B1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +595,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -572,25 +603,25 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -598,25 +629,25 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -624,17 +655,19 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -642,13 +675,13 @@
       </c>
     </row>
     <row r="15" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -656,12 +689,13 @@
       </c>
     </row>
     <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -669,22 +703,25 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -692,159 +729,255 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
       <c r="C29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
       <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+    <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
       <c r="C46" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
       <c r="C48" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>36</v>
+      <c r="B49" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
       <c r="C51" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>42</v>
-      </c>
+      <c r="B53" s="4"/>
       <c r="C53" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
       <c r="C54" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
       <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
       <c r="C56" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>49</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
       <c r="C57" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
       <c r="C58" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>54</v>
-      </c>
+      <c r="B59" s="4"/>
       <c r="C59" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B22:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICE/TABLA_BIBLIOGRAFIA_ICE.xlsx
+++ b/10_BIBLIOGRAFIAS_UAs_CARRERAS/ICE/TABLA_BIBLIOGRAFIA_ICE.xlsx
@@ -262,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -270,25 +270,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,15 +598,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -598,25 +615,25 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -624,346 +641,353 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="4" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B52:B59"/>
     <mergeCell ref="B22:B35"/>
     <mergeCell ref="B36:B38"/>
@@ -971,12 +995,6 @@
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
